--- a/seed/tests/data/Sample_BetterBuildings_MultipleCycles.xlsx
+++ b/seed/tests/data/Sample_BetterBuildings_MultipleCycles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achapin/seed/seed/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E61274-C249-B840-A8E5-40AD248517C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E99B4EEF-D5C4-6B49-A9FC-762849E6A539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="7780" windowWidth="38400" windowHeight="19860" xr2:uid="{15E2FF8E-BDE4-2645-8996-E71827398BCF}"/>
   </bookViews>

--- a/seed/tests/data/Sample_BetterBuildings_MultipleCycles.xlsx
+++ b/seed/tests/data/Sample_BetterBuildings_MultipleCycles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achapin/seed/seed/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E99B4EEF-D5C4-6B49-A9FC-762849E6A539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090C996B-729F-0849-8F94-E3264CBEC32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="7780" windowWidth="38400" windowHeight="19860" xr2:uid="{15E2FF8E-BDE4-2645-8996-E71827398BCF}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Office">'[1]Drop-Downs'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
-  <si>
-    <t>Helper Column</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Property Id</t>
   </si>
@@ -104,12 +101,6 @@
     <t>Source Energy Use (kBtu)</t>
   </si>
   <si>
-    <t>1560316</t>
-  </si>
-  <si>
-    <t>AC - Argus House</t>
-  </si>
-  <si>
     <t>12/31/2020</t>
   </si>
   <si>
@@ -131,13 +122,7 @@
     <t>2021-02-22</t>
   </si>
   <si>
-    <t>1560316_AC - Argus House_44196</t>
-  </si>
-  <si>
-    <t>1560316_AC - Argus House_43830</t>
-  </si>
-  <si>
-    <t>1560316_AC - Argus House_43465</t>
+    <t>Better Building Property</t>
   </si>
 </sst>
 </file>
@@ -216,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,7 +212,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -591,23 +575,22 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="4"/>
-    <col min="4" max="4" width="16.33203125" style="8"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="7"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +621,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -647,7 +630,7 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -665,193 +648,181 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>2045373</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6">
+        <v>7992</v>
+      </c>
+      <c r="I2" s="6">
+        <v>7992</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6">
+        <v>207.1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>207.1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="6">
+        <v>630245.30000000005</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1655183.7</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2045373</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43830</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6">
-        <v>44196</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H3" s="6">
+        <v>7992</v>
+      </c>
+      <c r="I3" s="6">
+        <v>7992</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K3" s="6">
+        <v>228.9</v>
+      </c>
+      <c r="L3" s="6">
+        <v>228.9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="O3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="6">
+        <v>701500.6</v>
+      </c>
+      <c r="S3" s="6">
+        <v>1829118.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2045373</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43465</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6">
         <v>7992</v>
       </c>
-      <c r="J2" s="7">
+      <c r="I4" s="6">
         <v>7992</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="7">
-        <v>207.1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>207.1</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="7">
-        <v>630245.30000000005</v>
-      </c>
-      <c r="T2" s="7">
-        <v>1655183.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6">
-        <v>43830</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K4" s="6">
+        <v>238.4</v>
+      </c>
+      <c r="L4" s="6">
+        <v>238.4</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="7">
-        <v>7992</v>
-      </c>
-      <c r="J3" s="7">
-        <v>7992</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="7">
-        <v>228.9</v>
-      </c>
-      <c r="M3" s="7">
-        <v>228.9</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="7">
-        <v>701500.6</v>
-      </c>
-      <c r="T3" s="7">
-        <v>1829118.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6">
-        <v>43465</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="O4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7992</v>
-      </c>
-      <c r="J4" s="7">
-        <v>7992</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7">
-        <v>238.4</v>
-      </c>
-      <c r="M4" s="7">
-        <v>238.4</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="7">
+      <c r="R4" s="6">
         <v>724279.4</v>
       </c>
-      <c r="T4" s="7">
+      <c r="S4" s="6">
         <v>1905372.9</v>
       </c>
     </row>
